--- a/translation-reference/zh/ClassSkillMap.xlsx
+++ b/translation-reference/zh/ClassSkillMap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chen\Desktop\MyFiles\game\mightandmagic\CD_installation\MM678 Merge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chen\Desktop\github_projects\mm678-i18n\translation-reference\zh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0063CB0-BC10-41BD-96F5-E8ED4681AAD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5473ADDD-6687-4629-96C4-4F396223818E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ClassSkill职业技能" sheetId="1" r:id="rId1"/>
@@ -2284,12 +2284,6 @@
     <t>伊普礼拜堂</t>
   </si>
   <si>
-    <t>缺口</t>
-  </si>
-  <si>
-    <t>缺口地下室</t>
-  </si>
-  <si>
     <t>中文名称</t>
   </si>
   <si>
@@ -2371,9 +2365,6 @@
     <t>智者</t>
   </si>
   <si>
-    <t>游侠</t>
-  </si>
-  <si>
     <t>大法师</t>
   </si>
   <si>
@@ -2411,6 +2402,15 @@
   </si>
   <si>
     <t>Dragon Ability</t>
+  </si>
+  <si>
+    <t>大裂缝</t>
+  </si>
+  <si>
+    <t>大裂缝地下室</t>
+  </si>
+  <si>
+    <t>圣武士</t>
   </si>
 </sst>
 </file>
@@ -2570,6 +2570,15 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2578,15 +2587,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2600,7 +2600,7 @@
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="89">
+  <dxfs count="88">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2658,16 +2658,6 @@
       <fill>
         <patternFill>
           <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3769,8 +3759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3817,417 +3807,417 @@
     <col min="50" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="K1" s="15">
+    <row r="1" spans="1:49" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K1" s="12">
         <v>1</v>
       </c>
-      <c r="L1" s="15">
+      <c r="L1" s="12">
         <v>2</v>
       </c>
-      <c r="M1" s="15">
+      <c r="M1" s="12">
         <v>3</v>
       </c>
-      <c r="N1" s="15">
+      <c r="N1" s="12">
         <v>4</v>
       </c>
-      <c r="O1" s="15">
+      <c r="O1" s="12">
         <v>5</v>
       </c>
-      <c r="P1" s="15">
+      <c r="P1" s="12">
         <v>6</v>
       </c>
-      <c r="Q1" s="15">
+      <c r="Q1" s="12">
         <v>7</v>
       </c>
-      <c r="R1" s="15">
+      <c r="R1" s="12">
         <v>8</v>
       </c>
-      <c r="S1" s="15">
+      <c r="S1" s="12">
         <v>9</v>
       </c>
-      <c r="T1" s="15">
+      <c r="T1" s="12">
         <v>10</v>
       </c>
-      <c r="U1" s="15">
+      <c r="U1" s="12">
         <v>11</v>
       </c>
-      <c r="V1" s="15">
+      <c r="V1" s="12">
         <v>12</v>
       </c>
-      <c r="W1" s="15">
+      <c r="W1" s="12">
         <v>13</v>
       </c>
-      <c r="X1" s="15">
+      <c r="X1" s="12">
         <v>14</v>
       </c>
-      <c r="Y1" s="15">
+      <c r="Y1" s="12">
         <v>15</v>
       </c>
-      <c r="Z1" s="15">
+      <c r="Z1" s="12">
         <v>16</v>
       </c>
-      <c r="AA1" s="15">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="15">
+      <c r="AA1" s="12">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="12">
         <v>18</v>
       </c>
-      <c r="AC1" s="15">
+      <c r="AC1" s="12">
         <v>19</v>
       </c>
-      <c r="AD1" s="15">
+      <c r="AD1" s="12">
         <v>20</v>
       </c>
-      <c r="AE1" s="15">
+      <c r="AE1" s="12">
         <v>21</v>
       </c>
-      <c r="AF1" s="15">
+      <c r="AF1" s="12">
         <v>22</v>
       </c>
-      <c r="AG1" s="15">
+      <c r="AG1" s="12">
         <v>23</v>
       </c>
-      <c r="AH1" s="15">
+      <c r="AH1" s="12">
         <v>24</v>
       </c>
-      <c r="AI1" s="15">
+      <c r="AI1" s="12">
         <v>25</v>
       </c>
-      <c r="AJ1" s="15">
+      <c r="AJ1" s="12">
         <v>26</v>
       </c>
-      <c r="AK1" s="15">
+      <c r="AK1" s="12">
         <v>27</v>
       </c>
-      <c r="AL1" s="15">
+      <c r="AL1" s="12">
         <v>28</v>
       </c>
-      <c r="AM1" s="15">
+      <c r="AM1" s="12">
         <v>29</v>
       </c>
-      <c r="AN1" s="15">
+      <c r="AN1" s="12">
         <v>30</v>
       </c>
-      <c r="AO1" s="15">
+      <c r="AO1" s="12">
         <v>31</v>
       </c>
-      <c r="AP1" s="15">
+      <c r="AP1" s="12">
         <v>32</v>
       </c>
-      <c r="AQ1" s="15">
+      <c r="AQ1" s="12">
         <v>33</v>
       </c>
-      <c r="AR1" s="15">
+      <c r="AR1" s="12">
         <v>34</v>
       </c>
-      <c r="AS1" s="15">
+      <c r="AS1" s="12">
         <v>35</v>
       </c>
-      <c r="AT1" s="15">
+      <c r="AT1" s="12">
         <v>36</v>
       </c>
-      <c r="AU1" s="15">
+      <c r="AU1" s="12">
         <v>37</v>
       </c>
-      <c r="AV1" s="15">
+      <c r="AV1" s="12">
         <v>38</v>
       </c>
-      <c r="AW1" s="15">
+      <c r="AW1" s="12">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:49" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="R2" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="S2" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="T2" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="U2" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="V2" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="W2" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="X2" s="15" t="s">
+      <c r="X2" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="Y2" s="15" t="s">
+      <c r="Y2" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="Z2" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="AA2" s="15" t="s">
+      <c r="AA2" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="AB2" s="15" t="s">
+      <c r="AB2" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="AC2" s="15" t="s">
+      <c r="AC2" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="AD2" s="15" t="s">
+      <c r="AD2" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="AE2" s="15" t="s">
+      <c r="AE2" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="AF2" s="15" t="s">
-        <v>790</v>
-      </c>
-      <c r="AG2" s="15" t="s">
-        <v>791</v>
-      </c>
-      <c r="AH2" s="15" t="s">
-        <v>792</v>
-      </c>
-      <c r="AI2" s="15" t="s">
+      <c r="AF2" s="12" t="s">
         <v>787</v>
       </c>
-      <c r="AJ2" s="15" t="s">
+      <c r="AG2" s="12" t="s">
+        <v>788</v>
+      </c>
+      <c r="AH2" s="12" t="s">
+        <v>789</v>
+      </c>
+      <c r="AI2" s="12" t="s">
+        <v>784</v>
+      </c>
+      <c r="AJ2" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="AK2" s="15" t="s">
+      <c r="AK2" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="AL2" s="15" t="s">
+      <c r="AL2" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AM2" s="15" t="s">
+      <c r="AM2" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="AN2" s="15" t="s">
+      <c r="AN2" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="AO2" s="15" t="s">
+      <c r="AO2" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="AP2" s="15" t="s">
+      <c r="AP2" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="AQ2" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR2" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS2" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="AT2" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU2" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW2" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>778</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>779</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>780</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>781</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA3" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC3" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD3" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE3" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF3" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG3" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="AH3" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI3" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ3" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK3" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL3" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM3" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AN3" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO3" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="AP3" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="AQ3" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR3" s="12" t="s">
         <v>785</v>
       </c>
-      <c r="AQ2" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR2" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="AS2" s="15" t="s">
-        <v>789</v>
-      </c>
-      <c r="AT2" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="AU2" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="AV2" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="AW2" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>781</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>782</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="P3" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q3" s="15" t="s">
-        <v>783</v>
-      </c>
-      <c r="R3" s="15" t="s">
-        <v>784</v>
-      </c>
-      <c r="S3" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="U3" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="V3" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="W3" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="X3" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y3" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z3" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA3" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="AB3" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC3" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD3" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE3" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="AF3" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG3" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH3" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="AI3" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="AJ3" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="AK3" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL3" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="AM3" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="AN3" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="AO3" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="AP3" s="15" t="s">
-        <v>786</v>
-      </c>
-      <c r="AQ3" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR3" s="15" t="s">
-        <v>788</v>
-      </c>
-      <c r="AS3" s="15" t="s">
+      <c r="AS3" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="AT3" s="15" t="s">
+      <c r="AT3" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="AU3" s="15" t="s">
+      <c r="AU3" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="AV3" s="15" t="s">
+      <c r="AV3" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="AW3" s="15" t="s">
+      <c r="AW3" s="12" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4235,7 +4225,7 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="10">
         <v>1</v>
       </c>
       <c r="C4" s="1">
@@ -4384,7 +4374,7 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="10">
         <v>1</v>
       </c>
       <c r="C5" s="1">
@@ -4533,7 +4523,7 @@
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="10">
         <v>1</v>
       </c>
       <c r="C6" s="1">
@@ -4682,7 +4672,7 @@
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="10">
         <v>1</v>
       </c>
       <c r="C7" s="1">
@@ -4831,7 +4821,7 @@
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="11">
         <v>2</v>
       </c>
       <c r="C8" s="1">
@@ -4980,7 +4970,7 @@
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="11">
         <v>2</v>
       </c>
       <c r="C9" s="1">
@@ -4990,7 +4980,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F9" s="1">
         <v>30</v>
@@ -5129,7 +5119,7 @@
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="11">
         <v>2</v>
       </c>
       <c r="C10" s="1">
@@ -5278,7 +5268,7 @@
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="11">
         <v>2</v>
       </c>
       <c r="C11" s="1">
@@ -5427,7 +5417,7 @@
       <c r="A12" s="1">
         <v>51</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="11">
         <v>2</v>
       </c>
       <c r="C12" s="1">
@@ -5576,7 +5566,7 @@
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="10">
         <v>3</v>
       </c>
       <c r="C13" s="1">
@@ -5725,7 +5715,7 @@
       <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="10">
         <v>3</v>
       </c>
       <c r="C14" s="1">
@@ -5874,7 +5864,7 @@
       <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="11">
         <v>4</v>
       </c>
       <c r="C15" s="1">
@@ -5884,7 +5874,7 @@
         <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F15" s="1">
         <v>50</v>
@@ -6023,7 +6013,7 @@
       <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="11">
         <v>4</v>
       </c>
       <c r="C16" s="1">
@@ -6172,7 +6162,7 @@
       <c r="A17" s="1">
         <v>13</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="10">
         <v>5</v>
       </c>
       <c r="C17" s="1">
@@ -6321,7 +6311,7 @@
       <c r="A18" s="1">
         <v>14</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="10">
         <v>5</v>
       </c>
       <c r="C18" s="1">
@@ -6470,7 +6460,7 @@
       <c r="A19" s="1">
         <v>15</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="10">
         <v>5</v>
       </c>
       <c r="C19" s="1">
@@ -6480,7 +6470,7 @@
         <v>15</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F19" s="1">
         <v>20</v>
@@ -6619,7 +6609,7 @@
       <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="10">
         <v>5</v>
       </c>
       <c r="C20" s="1">
@@ -6768,7 +6758,7 @@
       <c r="A21" s="1">
         <v>17</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="11">
         <v>6</v>
       </c>
       <c r="C21" s="1">
@@ -6917,7 +6907,7 @@
       <c r="A22" s="1">
         <v>18</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="11">
         <v>6</v>
       </c>
       <c r="C22" s="1">
@@ -7066,7 +7056,7 @@
       <c r="A23" s="1">
         <v>19</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="11">
         <v>6</v>
       </c>
       <c r="C23" s="1">
@@ -7215,7 +7205,7 @@
       <c r="A24" s="1">
         <v>20</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="11">
         <v>6</v>
       </c>
       <c r="C24" s="1">
@@ -7364,7 +7354,7 @@
       <c r="A25" s="1">
         <v>21</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="10">
         <v>7</v>
       </c>
       <c r="C25" s="1">
@@ -7513,7 +7503,7 @@
       <c r="A26" s="1">
         <v>22</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="10">
         <v>7</v>
       </c>
       <c r="C26" s="1">
@@ -7662,7 +7652,7 @@
       <c r="A27" s="1">
         <v>23</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="11">
         <v>8</v>
       </c>
       <c r="C27" s="1">
@@ -7811,7 +7801,7 @@
       <c r="A28" s="1">
         <v>24</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="11">
         <v>8</v>
       </c>
       <c r="C28" s="1">
@@ -7821,7 +7811,7 @@
         <v>22</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F28" s="1">
         <v>35</v>
@@ -7960,7 +7950,7 @@
       <c r="A29" s="1">
         <v>25</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="11">
         <v>8</v>
       </c>
       <c r="C29" s="1">
@@ -7970,7 +7960,7 @@
         <v>23</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="F29" s="1">
         <v>35</v>
@@ -8109,7 +8099,7 @@
       <c r="A30" s="1">
         <v>26</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="11">
         <v>8</v>
       </c>
       <c r="C30" s="1">
@@ -8258,7 +8248,7 @@
       <c r="A31" s="1">
         <v>27</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="10">
         <v>9</v>
       </c>
       <c r="C31" s="1">
@@ -8268,7 +8258,7 @@
         <v>25</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>779</v>
+        <v>792</v>
       </c>
       <c r="F31" s="1">
         <v>30</v>
@@ -8407,7 +8397,7 @@
       <c r="A32" s="1">
         <v>28</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="10">
         <v>9</v>
       </c>
       <c r="C32" s="1">
@@ -8556,7 +8546,7 @@
       <c r="A33" s="1">
         <v>29</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="10">
         <v>9</v>
       </c>
       <c r="C33" s="1">
@@ -8705,7 +8695,7 @@
       <c r="A34" s="1">
         <v>30</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="10">
         <v>9</v>
       </c>
       <c r="C34" s="1">
@@ -8854,7 +8844,7 @@
       <c r="A35" s="1">
         <v>31</v>
       </c>
-      <c r="B35" s="14">
+      <c r="B35" s="11">
         <v>10</v>
       </c>
       <c r="C35" s="1">
@@ -9003,7 +8993,7 @@
       <c r="A36" s="1">
         <v>32</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="11">
         <v>10</v>
       </c>
       <c r="C36" s="1">
@@ -9152,7 +9142,7 @@
       <c r="A37" s="1">
         <v>33</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="11">
         <v>10</v>
       </c>
       <c r="C37" s="1">
@@ -9301,7 +9291,7 @@
       <c r="A38" s="1">
         <v>34</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="11">
         <v>10</v>
       </c>
       <c r="C38" s="1">
@@ -9450,7 +9440,7 @@
       <c r="A39" s="1">
         <v>35</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="10">
         <v>11</v>
       </c>
       <c r="C39" s="1">
@@ -9599,7 +9589,7 @@
       <c r="A40" s="1">
         <v>36</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="10">
         <v>11</v>
       </c>
       <c r="C40" s="1">
@@ -9748,7 +9738,7 @@
       <c r="A41" s="1">
         <v>37</v>
       </c>
-      <c r="B41" s="13">
+      <c r="B41" s="10">
         <v>11</v>
       </c>
       <c r="C41" s="1">
@@ -9897,7 +9887,7 @@
       <c r="A42" s="1">
         <v>38</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="10">
         <v>11</v>
       </c>
       <c r="C42" s="1">
@@ -10046,7 +10036,7 @@
       <c r="A43" s="1">
         <v>39</v>
       </c>
-      <c r="B43" s="14">
+      <c r="B43" s="11">
         <v>12</v>
       </c>
       <c r="C43" s="1">
@@ -10195,7 +10185,7 @@
       <c r="A44" s="1">
         <v>40</v>
       </c>
-      <c r="B44" s="14">
+      <c r="B44" s="11">
         <v>12</v>
       </c>
       <c r="C44" s="1">
@@ -10344,7 +10334,7 @@
       <c r="A45" s="1">
         <v>41</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B45" s="10">
         <v>13</v>
       </c>
       <c r="C45" s="1">
@@ -10493,7 +10483,7 @@
       <c r="A46" s="1">
         <v>42</v>
       </c>
-      <c r="B46" s="13">
+      <c r="B46" s="10">
         <v>13</v>
       </c>
       <c r="C46" s="1">
@@ -10642,7 +10632,7 @@
       <c r="A47" s="1">
         <v>43</v>
       </c>
-      <c r="B47" s="14">
+      <c r="B47" s="11">
         <v>14</v>
       </c>
       <c r="C47" s="1">
@@ -10791,7 +10781,7 @@
       <c r="A48" s="1">
         <v>44</v>
       </c>
-      <c r="B48" s="14">
+      <c r="B48" s="11">
         <v>14</v>
       </c>
       <c r="C48" s="1">
@@ -10940,7 +10930,7 @@
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="14">
+      <c r="B49" s="11">
         <v>14</v>
       </c>
       <c r="C49" s="1">
@@ -10950,7 +10940,7 @@
         <v>97</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="F49" s="1">
         <v>20</v>
@@ -11089,17 +11079,17 @@
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="14">
+      <c r="B50" s="11">
         <v>14</v>
       </c>
       <c r="C50" s="1">
         <v>2</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F50" s="1">
         <v>20</v>
@@ -11238,7 +11228,7 @@
       <c r="A51" s="1">
         <v>52</v>
       </c>
-      <c r="B51" s="14">
+      <c r="B51" s="11">
         <v>14</v>
       </c>
       <c r="C51" s="1">
@@ -11387,7 +11377,7 @@
       <c r="A52" s="1">
         <v>45</v>
       </c>
-      <c r="B52" s="13">
+      <c r="B52" s="10">
         <v>15</v>
       </c>
       <c r="C52" s="1">
@@ -11536,7 +11526,7 @@
       <c r="A53" s="1">
         <v>46</v>
       </c>
-      <c r="B53" s="13">
+      <c r="B53" s="10">
         <v>15</v>
       </c>
       <c r="C53" s="1">
@@ -11685,7 +11675,7 @@
       <c r="A54" s="1">
         <v>49</v>
       </c>
-      <c r="B54" s="14">
+      <c r="B54" s="11">
         <v>16</v>
       </c>
       <c r="C54" s="1">
@@ -11832,168 +11822,168 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E21:E22">
-    <cfRule type="duplicateValues" dxfId="88" priority="86"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="duplicateValues" dxfId="86" priority="84"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E9">
-    <cfRule type="duplicateValues" dxfId="84" priority="82"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:E48">
-    <cfRule type="duplicateValues" dxfId="82" priority="80"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="duplicateValues" dxfId="80" priority="78"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="duplicateValues" dxfId="78" priority="76"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="duplicateValues" dxfId="76" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="duplicateValues" dxfId="74" priority="72"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="duplicateValues" dxfId="72" priority="70"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="duplicateValues" dxfId="70" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="duplicateValues" dxfId="68" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="duplicateValues" dxfId="66" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="duplicateValues" dxfId="64" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="duplicateValues" dxfId="62" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="duplicateValues" dxfId="60" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="duplicateValues" dxfId="58" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="duplicateValues" dxfId="56" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="duplicateValues" dxfId="54" priority="52"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="duplicateValues" dxfId="52" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="duplicateValues" dxfId="50" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="duplicateValues" dxfId="48" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="duplicateValues" dxfId="46" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="duplicateValues" dxfId="44" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="duplicateValues" dxfId="42" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="duplicateValues" dxfId="40" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="duplicateValues" dxfId="38" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="duplicateValues" dxfId="36" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="duplicateValues" dxfId="34" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E11">
-    <cfRule type="duplicateValues" dxfId="32" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="duplicateValues" dxfId="30" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="duplicateValues" dxfId="28" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43:E44">
-    <cfRule type="duplicateValues" dxfId="26" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:E26">
-    <cfRule type="duplicateValues" dxfId="24" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E14">
-    <cfRule type="duplicateValues" dxfId="22" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45:E46">
-    <cfRule type="duplicateValues" dxfId="20" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E16">
-    <cfRule type="duplicateValues" dxfId="18" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="duplicateValues" dxfId="16" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="duplicateValues" dxfId="12" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:AW54">
     <cfRule type="containsText" dxfId="5" priority="98" operator="containsText" text="G">
@@ -12032,8 +12022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EAD0F5C-BB1A-4A59-94BB-27205BFD8850}">
   <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12054,24 +12044,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
+        <v>752</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14" t="s">
+        <v>753</v>
+      </c>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="15" t="s">
         <v>754</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11" t="s">
-        <v>755</v>
-      </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="12" t="s">
-        <v>756</v>
-      </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -12081,10 +12071,10 @@
         <v>176</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>185</v>
@@ -12093,10 +12083,10 @@
         <v>176</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>185</v>
@@ -12105,10 +12095,10 @@
         <v>176</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -12119,7 +12109,7 @@
         <v>186</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>187</v>
@@ -12157,7 +12147,7 @@
         <v>188</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>189</v>
@@ -12309,7 +12299,7 @@
         <v>196</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>197</v>
@@ -12385,7 +12375,7 @@
         <v>200</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>201</v>
@@ -12461,7 +12451,7 @@
         <v>204</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>205</v>
@@ -12613,7 +12603,7 @@
         <v>212</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>213</v>
@@ -12955,7 +12945,7 @@
         <v>230</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>231</v>
@@ -13309,7 +13299,7 @@
         <v>370</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>371</v>
@@ -13677,7 +13667,7 @@
         <v>268</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>269</v>
@@ -13753,7 +13743,7 @@
         <v>272</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>273</v>
@@ -13791,7 +13781,7 @@
         <v>274</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>275</v>
@@ -14285,7 +14275,7 @@
         <v>300</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>301</v>
@@ -14323,7 +14313,7 @@
         <v>302</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>303</v>
@@ -14361,7 +14351,7 @@
         <v>304</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>305</v>
@@ -14605,7 +14595,7 @@
         <v>578</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>750</v>
+        <v>790</v>
       </c>
       <c r="L70" s="5" t="s">
         <v>579</v>
@@ -14631,7 +14621,7 @@
         <v>578</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>750</v>
+        <v>790</v>
       </c>
       <c r="L71" s="5" t="s">
         <v>580</v>
@@ -14657,7 +14647,7 @@
         <v>581</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>751</v>
+        <v>791</v>
       </c>
       <c r="L72" s="5" t="s">
         <v>582</v>
@@ -14713,7 +14703,7 @@
         <v>454</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="H76" s="8" t="s">
         <v>455</v>
